--- a/similarities/split_global/harmonic_similarity_timestamps_53.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_53.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,726 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G:7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:06.980000', '0:01:17.380000')]</t>
+          <t>('0:00:09.910000', '0:00:14')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:12.430000', '0:00:17.230000')]</t>
+          <t>('0:00:52.580000', '0:00:59.020000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=66.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=9.91</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=52.58</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>['D#:min/A#', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+          <t>('0:02:14.220000', '0:02:19.560000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:01.150000', '0:00:05.734000')]</t>
+          <t>('0:00:43.180000', '0:00:45.100000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>isophonics_194</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:02.612267', '0:00:17.443474')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:02:24.085784', '0:02:29.240614')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C:7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:52.140000', '0:01:54.760000')]</t>
+          <t>('0:00:24.250000', '0:00:28.150000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:27', '0:00:56.920000')]</t>
+          <t>('0:00:52.580000', '0:00:59.020000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=112.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=24.25</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=27.0']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=52.58</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'F:7']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D:7']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:16.520000', '0:00:20.520000')]</t>
+          <t>('0:00:17.040000', '0:00:24.520000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:03.779977', '0:01:15.482834')]</t>
+          <t>('0:00:04.860000', '0:00:09.640000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=16.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-263#t=63.779977']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:03.044470', '0:00:11.035850')]</t>
+          <t>('0:00:37.540000', '0:00:42.720000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:39.020000', '0:00:43.960000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=37.54</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=39.02</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_49</t>
+          <t>jaah_62</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C:7', 'F:7']]</t>
+          <t>['F:7', 'Bb:min7', 'Eb:7']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C:7', 'F:7']]</t>
+          <t>['D:7', 'G:min7', 'C:7']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:43.560000', '0:00:50.130000')]</t>
+          <t>('0:00:15.930000', '0:00:17.560000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.670000')]</t>
+          <t>('0:00:29.420000', '0:00:30.520000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=43.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=15.93</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=13.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-62#t=29.42</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:14.920000', '0:00:20.760000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:41.580000', '0:00:43.480000')]</t>
+          <t>('0:00:00.240000', '0:00:08.180000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/D#', 'D#/G', 'C:min/G'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['C#:maj', 'G#:maj', 'C#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E', 'A:min'], ['A:min', 'C', 'A:min'], ['A:min', 'D:min', 'A:min']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:15.060000', '0:00:23.160000'), ('0:01:10.800000', '0:01:14.600000'), ('0:00:10.160000', '0:00:13.840000')]</t>
+          <t>('0:00:09.060000', '0:00:10.780000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:12.824000', '0:00:20.865000'), ('0:00:16.840000', '0:00:26.811000'), ('0:00:35.888000', '0:00:38.359000')]</t>
+          <t>('0:00:06.536000', '0:00:11.853000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=70.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=10.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=9.06</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=12.824', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=16.84', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=35.888']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Ab:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Eb:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:40.370000')]</t>
+          <t>('0:00:22.860000', '0:00:46.940000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:00:05.350000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=22.86</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=5.35</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>jaah_50</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>jaah_23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:maj7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F', 'C:7', 'F']]</t>
+          <t>['C:min7', 'F:7', 'Bb:maj7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:12.640000', '0:01:23.380000')]</t>
+          <t>('0:00:16.600000', '0:00:21.740000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:11.210000', '0:00:14.450000')]</t>
+          <t>('0:00:51.170000', '0:00:54.730000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-50#t=16.6</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-23#t=51.17</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_148</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:24.860000', '0:00:45.460000')]</t>
+          <t>('0:00:08.080000', '0:00:26.260000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:16.840000', '0:00:24.560000')]</t>
+          <t>('0:00:00.480000', '0:00:09.640000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=24.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=8.08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>isophonics_194</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['D/5', 'A', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['G', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:03:47.460000', '0:04:01.440000')]</t>
+          <t>('0:00:12.743000', '0:00:17.058000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:04:42.120000', '0:04:50.060000')]</t>
+          <t>('0:02:22.379117', '0:02:29.240614')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=227.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=282.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=142.379117</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min/4', 'A', 'D:min']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:min/G', 'B:maj/F#', 'E:min/G']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:31.785035', '0:00:36.150690')]</t>
+          <t>('0:01:34.060000', '0:01:53.500000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:12.140000', '0:01:14.140000')]</t>
+          <t>('0:00:59.680000', '0:01:05.780000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=31.785035']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=94.06</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=72.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=59.68</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_100</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
+          <t>['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:32.380000', '0:00:46.680000')]</t>
+          <t>('0:00:17.900000', '0:00:21.420000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:30.740000', '0:01:49.700000')]</t>
+          <t>('0:03:50.780000', '0:04:06.860000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-100#t=32.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=17.9</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=90.74']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=230.78</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
